--- a/data/case1/2/Plm2_3.xlsx
+++ b/data/case1/2/Plm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.39597952459658359</v>
+        <v>-0.39879771986096557</v>
       </c>
       <c r="B1" s="0">
-        <v>0.3948056844224368</v>
+        <v>0.39785278407566693</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27541803193081549</v>
+        <v>-0.2787038788509264</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27239165194437831</v>
+        <v>0.27615003473821886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16944025366700188</v>
+        <v>-0.17320321798556293</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16854797850213998</v>
+        <v>0.17249672309044328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15654797870425163</v>
+        <v>-0.16049672337475229</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15575155008361818</v>
+        <v>0.15986496144980578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14975155079621416</v>
+        <v>-0.1538649626326043</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14815963596010651</v>
+        <v>0.15260123283236293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.047200298803884877</v>
+        <v>-0.073140727494305224</v>
       </c>
       <c r="B6" s="0">
-        <v>0.047169529539072386</v>
+        <v>0.07307353668712091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.027169530409436149</v>
+        <v>-0.053073538102912821</v>
       </c>
       <c r="B7" s="0">
-        <v>0.02710510200102334</v>
+        <v>0.052943112673142778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0071051028744335554</v>
+        <v>-0.032943114097302661</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0070150838992706355</v>
+        <v>0.032861438701840662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0010150846399596958</v>
+        <v>-0.026861439938331344</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00091698028806153076</v>
+        <v>0.026800370890239122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0050830189709856199</v>
+        <v>-0.020800372132640632</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0050998951017646732</v>
+        <v>0.020801258158464009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.019020351931352764</v>
+        <v>-0.016301259380060884</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.019045784751504868</v>
+        <v>0.016291677781769209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.025045784011311856</v>
+        <v>-0.010291679024970968</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.025207149360119807</v>
+        <v>0.010236568206710928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.031207148626071657</v>
+        <v>-0.011461853571488767</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.031286728131864727</v>
+        <v>0.011456473366968645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027081058755999088</v>
+        <v>0.00054352530229540008</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027050478304501802</v>
+        <v>-0.00054341434865889937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050479038315473</v>
+        <v>0.006543413101793405</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026448950371979</v>
+        <v>-0.0065450115985106194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026449686526</v>
+        <v>-0.015026751482589251</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003911605230513</v>
+        <v>0.015003759648009929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090039123443768077</v>
+        <v>-0.0090037608979152139</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999992314231392</v>
+        <v>0.008999998707504453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.1093876532004785</v>
+        <v>-0.10914890640137642</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10922119941931996</v>
+        <v>0.10903003678613743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096759535675918</v>
+        <v>-0.027096211909923174</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013237538382917</v>
+        <v>0.027012840832155494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013238246087582</v>
+        <v>-0.018012842008054974</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004255255227974</v>
+        <v>0.018004268804324042</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042559639114117</v>
+        <v>-0.009004269981554458</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999992906610871</v>
+        <v>0.0089999988219533478</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09395139899941185</v>
+        <v>-0.093946817950211425</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093637562463070978</v>
+        <v>0.09363500872372299</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084637563191702903</v>
+        <v>-0.084635009931137262</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127291471681964</v>
+        <v>0.084126605155543821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127292527634808</v>
+        <v>-0.042126606839807401</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998938224259</v>
+        <v>0.041999998307309383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0949593378909519</v>
+        <v>-0.062490692814183291</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094714473406945388</v>
+        <v>0.062362145323461959</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088714474144282462</v>
+        <v>-0.056362146543030178</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088397231834811407</v>
+        <v>0.056196280838133106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082397232576533419</v>
+        <v>-0.05019628206064608</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081304475192885306</v>
+        <v>0.049625814893764719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075304475951639915</v>
+        <v>-0.043625816130619555</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074547501047242726</v>
+        <v>0.043239680745339015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062547501874380629</v>
+        <v>-0.031239682073090691</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06217307123416127</v>
+        <v>0.031063085185124351</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042173072143618207</v>
+        <v>-0.011063086628083862</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04201928349383488</v>
+        <v>0.011053673669553898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019284363259288</v>
+        <v>-0.027017773298672054</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000562869890388</v>
+        <v>0.027000447225097091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005637981586091</v>
+        <v>-0.0060004486856124473</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992152182102</v>
+        <v>0.0059999987483791983</v>
       </c>
     </row>
   </sheetData>
